--- a/Code/Results/Cases/Case_4_188/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_188/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.91529533312211</v>
+        <v>18.98675272900141</v>
       </c>
       <c r="C2">
-        <v>10.57568580677539</v>
+        <v>8.189968631619857</v>
       </c>
       <c r="D2">
-        <v>6.905986959457748</v>
+        <v>6.077014308638037</v>
       </c>
       <c r="E2">
-        <v>4.877558089573143</v>
+        <v>8.514233786460656</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.150157208054796</v>
+        <v>3.775282611885188</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.64873750565562</v>
+        <v>38.26958236946545</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.13614050698943</v>
+        <v>17.47447582109373</v>
       </c>
       <c r="L2">
-        <v>6.650277189541772</v>
+        <v>10.61722788461962</v>
       </c>
       <c r="M2">
-        <v>11.84011490342047</v>
+        <v>17.50285539737063</v>
       </c>
       <c r="N2">
-        <v>18.89116640034936</v>
+        <v>26.07614836210371</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.02388405972108</v>
+        <v>18.85368605590368</v>
       </c>
       <c r="C3">
-        <v>9.889453883655531</v>
+        <v>7.976876354802147</v>
       </c>
       <c r="D3">
-        <v>6.423310916649898</v>
+        <v>5.973751394429807</v>
       </c>
       <c r="E3">
-        <v>4.882823755507395</v>
+        <v>8.523139282333672</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.160123359380702</v>
+        <v>3.778799528406593</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.12116198963508</v>
+        <v>38.21137738503783</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.38842197965838</v>
+        <v>17.36959470919817</v>
       </c>
       <c r="L3">
-        <v>6.570764188163893</v>
+        <v>10.62794495146161</v>
       </c>
       <c r="M3">
-        <v>11.52060512020905</v>
+        <v>17.4984062799528</v>
       </c>
       <c r="N3">
-        <v>18.89107584209454</v>
+        <v>26.0836894591746</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.46516156721228</v>
+        <v>18.77680316077571</v>
       </c>
       <c r="C4">
-        <v>9.453272521911767</v>
+        <v>7.845738182111106</v>
       </c>
       <c r="D4">
-        <v>6.157757476043167</v>
+        <v>5.911349246916056</v>
       </c>
       <c r="E4">
-        <v>4.886985973586319</v>
+        <v>8.52902909165541</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.166393129337446</v>
+        <v>3.781071197545371</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.80993538867395</v>
+        <v>38.18105643295558</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.92225642576441</v>
+        <v>17.30949878069627</v>
       </c>
       <c r="L4">
-        <v>6.525095135561624</v>
+        <v>10.63603937015721</v>
       </c>
       <c r="M4">
-        <v>11.32836565674005</v>
+        <v>17.49902539142119</v>
       </c>
       <c r="N4">
-        <v>18.89652275653225</v>
+        <v>26.09002748644447</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.23486524714942</v>
+        <v>18.74671383026947</v>
       </c>
       <c r="C5">
-        <v>9.271866242233612</v>
+        <v>7.792311286409932</v>
       </c>
       <c r="D5">
-        <v>6.047518477537903</v>
+        <v>5.886207405695036</v>
       </c>
       <c r="E5">
-        <v>4.888908195274269</v>
+        <v>8.531535527392304</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.168988046812302</v>
+        <v>3.782025256173283</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.686271247653</v>
+        <v>38.17006675847568</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.73073238275756</v>
+        <v>17.28611119229516</v>
       </c>
       <c r="L5">
-        <v>6.50726795642637</v>
+        <v>10.63971876546717</v>
       </c>
       <c r="M5">
-        <v>11.25108183603794</v>
+        <v>17.50012144023679</v>
       </c>
       <c r="N5">
-        <v>18.90007051585081</v>
+        <v>26.09303961675573</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.19647538268806</v>
+        <v>18.74179327707895</v>
       </c>
       <c r="C6">
-        <v>9.241525685524255</v>
+        <v>7.783443210067266</v>
       </c>
       <c r="D6">
-        <v>6.029093821945187</v>
+        <v>5.882051023602099</v>
       </c>
       <c r="E6">
-        <v>4.889240827090855</v>
+        <v>8.531958145514958</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.169421401204876</v>
+        <v>3.782185391310113</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.66592701505316</v>
+        <v>38.16832456175819</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.6988430836296</v>
+        <v>17.28229481666758</v>
       </c>
       <c r="L6">
-        <v>6.504354793689411</v>
+        <v>10.64035273121938</v>
       </c>
       <c r="M6">
-        <v>11.23831458911218</v>
+        <v>17.50035442460914</v>
       </c>
       <c r="N6">
-        <v>18.90073827129471</v>
+        <v>26.09356570567191</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.46206591429944</v>
+        <v>18.77639230405446</v>
       </c>
       <c r="C7">
-        <v>9.450840707036864</v>
+        <v>7.845017477058835</v>
       </c>
       <c r="D7">
-        <v>6.156278831474117</v>
+        <v>5.911008964141931</v>
       </c>
       <c r="E7">
-        <v>4.887010991359785</v>
+        <v>8.52906246364204</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.166427960948075</v>
+        <v>3.781083949449534</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.80825484556543</v>
+        <v>38.18090268526949</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.91967945329629</v>
+        <v>17.3091788801248</v>
       </c>
       <c r="L7">
-        <v>6.524851553049175</v>
+        <v>10.63608744959586</v>
       </c>
       <c r="M7">
-        <v>11.32731901997161</v>
+        <v>17.49903675560054</v>
       </c>
       <c r="N7">
-        <v>18.89656529640716</v>
+        <v>26.09006637097569</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.61043572006829</v>
+        <v>18.9398888542703</v>
       </c>
       <c r="C8">
-        <v>10.34218267845391</v>
+        <v>8.116608198705846</v>
       </c>
       <c r="D8">
-        <v>6.740061130877788</v>
+        <v>6.041222829257112</v>
       </c>
       <c r="E8">
-        <v>4.879176082876405</v>
+        <v>8.517216992210392</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.153563602234688</v>
+        <v>3.776472006323913</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.46417251748113</v>
+        <v>38.24839169722385</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.879910882244</v>
+        <v>17.43743279728672</v>
       </c>
       <c r="L8">
-        <v>6.622201359030809</v>
+        <v>10.62060896850443</v>
       </c>
       <c r="M8">
-        <v>11.72916746328659</v>
+        <v>17.5006266693964</v>
       </c>
       <c r="N8">
-        <v>18.88995861620346</v>
+        <v>26.07839403345078</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.76370419385503</v>
+        <v>19.29737905323805</v>
       </c>
       <c r="C9">
-        <v>12.07909982664233</v>
+        <v>8.643142283625629</v>
       </c>
       <c r="D9">
-        <v>7.880669417876475</v>
+        <v>6.302945979490208</v>
       </c>
       <c r="E9">
-        <v>4.871567548831852</v>
+        <v>8.497324920968975</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.129428129433333</v>
+        <v>3.768314041759806</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.85289101463957</v>
+        <v>38.42350816709328</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.69952641560115</v>
+        <v>17.72209032387073</v>
       </c>
       <c r="L9">
-        <v>6.83853469326957</v>
+        <v>10.60226264471683</v>
       </c>
       <c r="M9">
-        <v>12.5459062380578</v>
+        <v>17.53026685652657</v>
       </c>
       <c r="N9">
-        <v>18.92335504789716</v>
+        <v>26.06906032913123</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.27822294116893</v>
+        <v>19.58052855529076</v>
       </c>
       <c r="C10">
-        <v>13.28431560674497</v>
+        <v>9.021669642307973</v>
       </c>
       <c r="D10">
-        <v>8.649437726397217</v>
+        <v>6.497028536767462</v>
       </c>
       <c r="E10">
-        <v>4.871317784473981</v>
+        <v>8.484731121269363</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.112203521896468</v>
+        <v>3.762853884900178</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.93855417745611</v>
+        <v>38.57791522223158</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.99105138963035</v>
+        <v>17.95001574683416</v>
       </c>
       <c r="L10">
-        <v>7.01360297181132</v>
+        <v>10.59609218316604</v>
       </c>
       <c r="M10">
-        <v>13.16066062601344</v>
+        <v>17.56810242645104</v>
       </c>
       <c r="N10">
-        <v>18.98020713004761</v>
+        <v>26.07047558944416</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.95201531007982</v>
+        <v>19.71333681280348</v>
       </c>
       <c r="C11">
-        <v>13.81309843836823</v>
+        <v>9.191185665739763</v>
       </c>
       <c r="D11">
-        <v>8.985101118381554</v>
+        <v>6.58528100819562</v>
       </c>
       <c r="E11">
-        <v>4.872525885482591</v>
+        <v>8.479437925499345</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.104438263992924</v>
+        <v>3.760484342097333</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>32.44753068462465</v>
+        <v>38.6536640117954</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.57917382852</v>
+        <v>18.05745134289961</v>
       </c>
       <c r="L11">
-        <v>7.096906924445548</v>
+        <v>10.59486836085039</v>
       </c>
       <c r="M11">
-        <v>13.44314529286277</v>
+        <v>17.58876976893945</v>
       </c>
       <c r="N11">
-        <v>19.01408614266693</v>
+        <v>26.07291705348422</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.20499548922119</v>
+        <v>19.76416317835761</v>
       </c>
       <c r="C12">
-        <v>14.01068275897222</v>
+        <v>9.254925806290993</v>
       </c>
       <c r="D12">
-        <v>9.110275295691643</v>
+        <v>6.618660193892153</v>
       </c>
       <c r="E12">
-        <v>4.873189410693481</v>
+        <v>8.477495981524905</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.101504155649707</v>
+        <v>3.759603386643789</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>32.64253470461917</v>
+        <v>38.68313130532199</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.84069934641879</v>
+        <v>18.09864398849041</v>
       </c>
       <c r="L12">
-        <v>7.12899441466883</v>
+        <v>10.59463211986537</v>
       </c>
       <c r="M12">
-        <v>13.55050812076081</v>
+        <v>17.59708938940537</v>
       </c>
       <c r="N12">
-        <v>19.02816065526584</v>
+        <v>26.07410003338939</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.15060755918979</v>
+        <v>19.75319368591305</v>
       </c>
       <c r="C13">
-        <v>13.9682449461312</v>
+        <v>9.241219330568148</v>
       </c>
       <c r="D13">
-        <v>9.083401354956827</v>
+        <v>6.611473712958668</v>
       </c>
       <c r="E13">
-        <v>4.873037064759867</v>
+        <v>8.477911438355182</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.102135845804321</v>
+        <v>3.759792391047524</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>32.60043456808433</v>
+        <v>38.67675033334015</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.78454268543869</v>
+        <v>18.08975026463068</v>
       </c>
       <c r="L13">
-        <v>7.122059415550614</v>
+        <v>10.59467290224548</v>
       </c>
       <c r="M13">
-        <v>13.52736824382741</v>
+        <v>17.59527573029951</v>
       </c>
       <c r="N13">
-        <v>19.02507250151826</v>
+        <v>26.07383376411893</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.97287141758428</v>
+        <v>19.7175078477249</v>
       </c>
       <c r="C14">
-        <v>13.82940610578606</v>
+        <v>9.196439025437387</v>
       </c>
       <c r="D14">
-        <v>8.99543751301694</v>
+        <v>6.58802813241487</v>
       </c>
       <c r="E14">
-        <v>4.87257624466589</v>
+        <v>8.479276909602964</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.104196766958175</v>
+        <v>3.760411538467749</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>32.4635277481106</v>
+        <v>38.65607266953776</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.60076545377078</v>
+        <v>18.06083026012331</v>
       </c>
       <c r="L14">
-        <v>7.099535819574379</v>
+        <v>10.59484437477459</v>
       </c>
       <c r="M14">
-        <v>13.45197026857728</v>
+        <v>17.58944436381755</v>
       </c>
       <c r="N14">
-        <v>19.01521854157965</v>
+        <v>26.07300919867781</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.86372134010322</v>
+        <v>19.69571765797806</v>
       </c>
       <c r="C15">
-        <v>13.74402232454084</v>
+        <v>9.168949055474085</v>
       </c>
       <c r="D15">
-        <v>8.941307933452599</v>
+        <v>6.573660803246642</v>
       </c>
       <c r="E15">
-        <v>4.872321326643772</v>
+        <v>8.480121430561253</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.105459861014066</v>
+        <v>3.760792909037732</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.37996663590591</v>
+        <v>38.64350866896968</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.49248661659425</v>
+        <v>18.04318130871219</v>
       </c>
       <c r="L15">
-        <v>7.085810564251366</v>
+        <v>10.59497897899855</v>
       </c>
       <c r="M15">
-        <v>13.40583771588097</v>
+        <v>17.58593661785208</v>
       </c>
       <c r="N15">
-        <v>19.00934777891005</v>
+        <v>26.07253778412196</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.23388369701869</v>
+        <v>19.57192629599249</v>
       </c>
       <c r="C16">
-        <v>13.24937856747331</v>
+        <v>9.010531648068794</v>
       </c>
       <c r="D16">
-        <v>8.627225762135176</v>
+        <v>6.491257283829325</v>
       </c>
       <c r="E16">
-        <v>4.871266742291628</v>
+        <v>8.485085796786546</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.112712109038721</v>
+        <v>3.76301103185972</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.90560274924058</v>
+        <v>38.57307493237905</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.95312414179572</v>
+        <v>17.94306749395939</v>
       </c>
       <c r="L16">
-        <v>7.008233829369493</v>
+        <v>10.59620398222193</v>
       </c>
       <c r="M16">
-        <v>13.14225489695403</v>
+        <v>17.56682100896429</v>
       </c>
       <c r="N16">
-        <v>18.97816207263185</v>
+        <v>26.07035220421077</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.84360707680659</v>
+        <v>19.49698067808</v>
       </c>
       <c r="C17">
-        <v>12.94104045951918</v>
+        <v>8.912612538114187</v>
       </c>
       <c r="D17">
-        <v>8.431006226536056</v>
+        <v>6.440670798167646</v>
       </c>
       <c r="E17">
-        <v>4.87096897095478</v>
+        <v>8.488242753041675</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.117176642587986</v>
+        <v>3.764400985535883</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>31.6185234386758</v>
+        <v>38.53127062136356</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.619576235537</v>
+        <v>17.88259044285002</v>
       </c>
       <c r="L17">
-        <v>6.961591461964833</v>
+        <v>10.59736066139358</v>
       </c>
       <c r="M17">
-        <v>12.9812646237567</v>
+        <v>17.5559768900369</v>
       </c>
       <c r="N17">
-        <v>18.96114691441563</v>
+        <v>26.06947182326418</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.61769893854886</v>
+        <v>19.45425314937079</v>
       </c>
       <c r="C18">
-        <v>12.76184948302149</v>
+        <v>8.856043641226</v>
       </c>
       <c r="D18">
-        <v>8.316817552276694</v>
+        <v>6.411573344993393</v>
       </c>
       <c r="E18">
-        <v>4.870921023032546</v>
+        <v>8.490099580340365</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.119751385059414</v>
+        <v>3.765211215390655</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.45481765003881</v>
+        <v>38.50774495375161</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.42674910216526</v>
+        <v>17.84816060390043</v>
       </c>
       <c r="L18">
-        <v>6.935107871696257</v>
+        <v>10.59817499889449</v>
       </c>
       <c r="M18">
-        <v>12.88893361020355</v>
+        <v>17.550065153957</v>
       </c>
       <c r="N18">
-        <v>18.95210877441628</v>
+        <v>26.06913466122708</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.54096488065807</v>
+        <v>19.43985269681709</v>
       </c>
       <c r="C19">
-        <v>12.7008578069156</v>
+        <v>8.836849844485741</v>
       </c>
       <c r="D19">
-        <v>8.277924571602705</v>
+        <v>6.401722282541712</v>
       </c>
       <c r="E19">
-        <v>4.870925519518115</v>
+        <v>8.490735322907396</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.120624432515373</v>
+        <v>3.765487397254501</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31.39963017581837</v>
+        <v>38.49986898401369</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.36129349355328</v>
+        <v>17.8365651236401</v>
       </c>
       <c r="L19">
-        <v>6.926199627864199</v>
+        <v>10.59847633119096</v>
       </c>
       <c r="M19">
-        <v>12.85771836869609</v>
+        <v>17.54811955117821</v>
       </c>
       <c r="N19">
-        <v>18.94917450426722</v>
+        <v>26.06904956662546</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.88530088958863</v>
+        <v>19.50491981257701</v>
       </c>
       <c r="C20">
-        <v>12.97405332809429</v>
+        <v>8.923062405798188</v>
       </c>
       <c r="D20">
-        <v>8.452031013086662</v>
+        <v>6.446056222052627</v>
       </c>
       <c r="E20">
-        <v>4.87098779741774</v>
+        <v>8.487902444635965</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.116700700654204</v>
+        <v>3.764251909150173</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>31.64893650896956</v>
+        <v>38.5356671045685</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.65518441890237</v>
+        <v>17.88899180747297</v>
       </c>
       <c r="L20">
-        <v>6.966520932522884</v>
+        <v>10.5972221083211</v>
       </c>
       <c r="M20">
-        <v>12.99837490708529</v>
+        <v>17.55709760018484</v>
       </c>
       <c r="N20">
-        <v>18.96288009611781</v>
+        <v>26.06954802910141</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.02513542521715</v>
+        <v>19.72797545944124</v>
       </c>
       <c r="C21">
-        <v>13.87025720973348</v>
+        <v>9.209604856291975</v>
       </c>
       <c r="D21">
-        <v>9.021326389355174</v>
+        <v>6.594916027151452</v>
       </c>
       <c r="E21">
-        <v>4.872705867553679</v>
+        <v>8.47887414356955</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.103591281523846</v>
+        <v>3.76022923721056</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32.50367823723158</v>
+        <v>38.66212503118602</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.65484784033103</v>
+        <v>18.06931119538671</v>
       </c>
       <c r="L21">
-        <v>7.10613669754269</v>
+        <v>10.59478784721741</v>
       </c>
       <c r="M21">
-        <v>13.4741058809204</v>
+        <v>17.59114381896818</v>
       </c>
       <c r="N21">
-        <v>19.01807830926185</v>
+        <v>26.07324437988992</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.75746928825281</v>
+        <v>19.8768527208113</v>
       </c>
       <c r="C22">
-        <v>14.44058974473582</v>
+        <v>9.394215758385643</v>
       </c>
       <c r="D22">
-        <v>9.38216593562429</v>
+        <v>6.691955569904925</v>
       </c>
       <c r="E22">
-        <v>4.875038912903579</v>
+        <v>8.473337689044671</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.095058946753341</v>
+        <v>3.757695379194393</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.07557010957316</v>
+        <v>38.74933092131698</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.40912305801557</v>
+        <v>18.1901131739701</v>
       </c>
       <c r="L22">
-        <v>7.20055280915403</v>
+        <v>10.59452090836009</v>
       </c>
       <c r="M22">
-        <v>13.7873135790732</v>
+        <v>17.61626862176022</v>
       </c>
       <c r="N22">
-        <v>19.06146173610358</v>
+        <v>26.07716654975896</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.36774790948995</v>
+        <v>19.7971243881466</v>
       </c>
       <c r="C23">
-        <v>14.1375469556831</v>
+        <v>9.29594960332231</v>
       </c>
       <c r="D23">
-        <v>9.190575570145336</v>
+        <v>6.640197664551637</v>
       </c>
       <c r="E23">
-        <v>4.873677069397978</v>
+        <v>8.476259349640916</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.099610904189464</v>
+        <v>3.759039069424234</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.76908872403306</v>
+        <v>38.70237366244106</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.00852667073632</v>
+        <v>18.12537894741627</v>
       </c>
       <c r="L23">
-        <v>7.149865330014231</v>
+        <v>10.59454240576121</v>
       </c>
       <c r="M23">
-        <v>13.61993982333817</v>
+        <v>17.60259740128515</v>
       </c>
       <c r="N23">
-        <v>19.03760544450383</v>
+        <v>26.07493540755424</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.86645589178895</v>
+        <v>19.50132940633901</v>
       </c>
       <c r="C24">
-        <v>12.9591342116416</v>
+        <v>8.918338868630796</v>
       </c>
       <c r="D24">
-        <v>8.442530010195998</v>
+        <v>6.443621514779798</v>
       </c>
       <c r="E24">
-        <v>4.870978903267913</v>
+        <v>8.488056167703405</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.116915848740747</v>
+        <v>3.764319271917031</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>31.63518259305792</v>
+        <v>38.53367787080305</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.63908927938053</v>
+        <v>17.88609669159167</v>
       </c>
       <c r="L24">
-        <v>6.96429128672438</v>
+        <v>10.5972842829372</v>
       </c>
       <c r="M24">
-        <v>12.99063864756456</v>
+        <v>17.5565899217079</v>
       </c>
       <c r="N24">
-        <v>18.9620942138453</v>
+        <v>26.06951305002993</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.19269739618715</v>
+        <v>19.19691808343973</v>
       </c>
       <c r="C25">
-        <v>11.61712961375636</v>
+        <v>8.501845337279162</v>
       </c>
       <c r="D25">
-        <v>7.584568965257193</v>
+        <v>6.231678539555376</v>
       </c>
       <c r="E25">
-        <v>4.872737234052345</v>
+        <v>8.502350409505748</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.135855923487254</v>
+        <v>3.770426820234693</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.46597081756349</v>
+        <v>38.37158580532039</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.21491020961794</v>
+        <v>17.64167462413421</v>
       </c>
       <c r="L25">
-        <v>6.777226311614578</v>
+        <v>10.60594125565759</v>
       </c>
       <c r="M25">
-        <v>12.32220715904466</v>
+        <v>17.5194186204304</v>
       </c>
       <c r="N25">
-        <v>18.90895976822672</v>
+        <v>26.07013302974105</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_188/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_188/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.98675272900141</v>
+        <v>16.9152953331221</v>
       </c>
       <c r="C2">
-        <v>8.189968631619857</v>
+        <v>10.57568580677536</v>
       </c>
       <c r="D2">
-        <v>6.077014308638037</v>
+        <v>6.905986959457729</v>
       </c>
       <c r="E2">
-        <v>8.514233786460656</v>
+        <v>4.877558089573202</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.775282611885188</v>
+        <v>2.150157208055058</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>38.26958236946545</v>
+        <v>29.6487375056555</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.47447582109373</v>
+        <v>15.13614050698942</v>
       </c>
       <c r="L2">
-        <v>10.61722788461962</v>
+        <v>6.650277189541806</v>
       </c>
       <c r="M2">
-        <v>17.50285539737063</v>
+        <v>11.84011490342044</v>
       </c>
       <c r="N2">
-        <v>26.07614836210371</v>
+        <v>18.89116640034927</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.85368605590368</v>
+        <v>16.02388405972108</v>
       </c>
       <c r="C3">
-        <v>7.976876354802147</v>
+        <v>9.889453883655474</v>
       </c>
       <c r="D3">
-        <v>5.973751394429807</v>
+        <v>6.423310916649911</v>
       </c>
       <c r="E3">
-        <v>8.523139282333672</v>
+        <v>4.882823755507331</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.778799528406593</v>
+        <v>2.16012335938057</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>38.21137738503783</v>
+        <v>29.12116198963507</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.36959470919817</v>
+        <v>14.38842197965839</v>
       </c>
       <c r="L3">
-        <v>10.62794495146161</v>
+        <v>6.570764188163937</v>
       </c>
       <c r="M3">
-        <v>17.4984062799528</v>
+        <v>11.52060512020906</v>
       </c>
       <c r="N3">
-        <v>26.0836894591746</v>
+        <v>18.89107584209454</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.77680316077571</v>
+        <v>15.46516156721219</v>
       </c>
       <c r="C4">
-        <v>7.845738182111106</v>
+        <v>9.453272521911742</v>
       </c>
       <c r="D4">
-        <v>5.911349246916056</v>
+        <v>6.157757476043118</v>
       </c>
       <c r="E4">
-        <v>8.52902909165541</v>
+        <v>4.886985973586253</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.781071197545371</v>
+        <v>2.166393129337446</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>38.18105643295558</v>
+        <v>28.80993538867365</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.30949878069627</v>
+        <v>13.9222564257643</v>
       </c>
       <c r="L4">
-        <v>10.63603937015721</v>
+        <v>6.525095135561595</v>
       </c>
       <c r="M4">
-        <v>17.49902539142119</v>
+        <v>11.32836565673992</v>
       </c>
       <c r="N4">
-        <v>26.09002748644447</v>
+        <v>18.8965227565321</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.74671383026947</v>
+        <v>15.23486524714943</v>
       </c>
       <c r="C5">
-        <v>7.792311286409932</v>
+        <v>9.271866242233632</v>
       </c>
       <c r="D5">
-        <v>5.886207405695036</v>
+        <v>6.047518477537959</v>
       </c>
       <c r="E5">
-        <v>8.531535527392304</v>
+        <v>4.888908195273943</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.782025256173283</v>
+        <v>2.168988046812433</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>38.17006675847568</v>
+        <v>28.68627124765304</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.28611119229516</v>
+        <v>13.73073238275757</v>
       </c>
       <c r="L5">
-        <v>10.63971876546717</v>
+        <v>6.507267956426246</v>
       </c>
       <c r="M5">
-        <v>17.50012144023679</v>
+        <v>11.25108183603786</v>
       </c>
       <c r="N5">
-        <v>26.09303961675573</v>
+        <v>18.90007051585086</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.74179327707895</v>
+        <v>15.19647538268799</v>
       </c>
       <c r="C6">
-        <v>7.783443210067266</v>
+        <v>9.241525685524193</v>
       </c>
       <c r="D6">
-        <v>5.882051023602099</v>
+        <v>6.029093821945186</v>
       </c>
       <c r="E6">
-        <v>8.531958145514958</v>
+        <v>4.88924082709099</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.782185391310113</v>
+        <v>2.16942140120474</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>38.16832456175819</v>
+        <v>28.66592701505289</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.28229481666758</v>
+        <v>13.6988430836295</v>
       </c>
       <c r="L6">
-        <v>10.64035273121938</v>
+        <v>6.504354793689418</v>
       </c>
       <c r="M6">
-        <v>17.50035442460914</v>
+        <v>11.23831458911213</v>
       </c>
       <c r="N6">
-        <v>26.09356570567191</v>
+        <v>18.90073827129451</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.77639230405446</v>
+        <v>15.46206591429949</v>
       </c>
       <c r="C7">
-        <v>7.845017477058835</v>
+        <v>9.450840707036866</v>
       </c>
       <c r="D7">
-        <v>5.911008964141931</v>
+        <v>6.156278831474165</v>
       </c>
       <c r="E7">
-        <v>8.52906246364204</v>
+        <v>4.887010991359655</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.781083949449534</v>
+        <v>2.166427960948213</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>38.18090268526949</v>
+        <v>28.80825484556556</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.3091788801248</v>
+        <v>13.91967945329631</v>
       </c>
       <c r="L7">
-        <v>10.63608744959586</v>
+        <v>6.524851553049103</v>
       </c>
       <c r="M7">
-        <v>17.49903675560054</v>
+        <v>11.32731901997159</v>
       </c>
       <c r="N7">
-        <v>26.09006637097569</v>
+        <v>18.89656529640723</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.9398888542703</v>
+        <v>16.6104357200683</v>
       </c>
       <c r="C8">
-        <v>8.116608198705846</v>
+        <v>10.34218267845391</v>
       </c>
       <c r="D8">
-        <v>6.041222829257112</v>
+        <v>6.740061130877803</v>
       </c>
       <c r="E8">
-        <v>8.517216992210392</v>
+        <v>4.879176082876342</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.776472006323913</v>
+        <v>2.153563602234293</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>38.24839169722385</v>
+        <v>29.46417251748115</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.43743279728672</v>
+        <v>14.87991088224405</v>
       </c>
       <c r="L8">
-        <v>10.62060896850443</v>
+        <v>6.622201359030832</v>
       </c>
       <c r="M8">
-        <v>17.5006266693964</v>
+        <v>11.72916746328662</v>
       </c>
       <c r="N8">
-        <v>26.07839403345078</v>
+        <v>18.88995861620345</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.29737905323805</v>
+        <v>18.76370419385502</v>
       </c>
       <c r="C9">
-        <v>8.643142283625629</v>
+        <v>12.07909982664218</v>
       </c>
       <c r="D9">
-        <v>6.302945979490208</v>
+        <v>7.880669417876521</v>
       </c>
       <c r="E9">
-        <v>8.497324920968975</v>
+        <v>4.871567548831856</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.768314041759806</v>
+        <v>2.129428129433069</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>38.42350816709328</v>
+        <v>30.85289101463957</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.72209032387073</v>
+        <v>16.69952641560114</v>
       </c>
       <c r="L9">
-        <v>10.60226264471683</v>
+        <v>6.83853469326961</v>
       </c>
       <c r="M9">
-        <v>17.53026685652657</v>
+        <v>12.54590623805782</v>
       </c>
       <c r="N9">
-        <v>26.06906032913123</v>
+        <v>18.92335504789721</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.58052855529076</v>
+        <v>20.27822294116895</v>
       </c>
       <c r="C10">
-        <v>9.021669642307973</v>
+        <v>13.28431560674488</v>
       </c>
       <c r="D10">
-        <v>6.497028536767462</v>
+        <v>8.649437726397226</v>
       </c>
       <c r="E10">
-        <v>8.484731121269363</v>
+        <v>4.871317784473984</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.762853884900178</v>
+        <v>2.112203521896473</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>38.57791522223158</v>
+        <v>31.9385541774561</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.95001574683416</v>
+        <v>17.99105138963035</v>
       </c>
       <c r="L10">
-        <v>10.59609218316604</v>
+        <v>7.013602971811356</v>
       </c>
       <c r="M10">
-        <v>17.56810242645104</v>
+        <v>13.16066062601345</v>
       </c>
       <c r="N10">
-        <v>26.07047558944416</v>
+        <v>18.98020713004761</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.71333681280348</v>
+        <v>20.95201531007985</v>
       </c>
       <c r="C11">
-        <v>9.191185665739763</v>
+        <v>13.81309843836822</v>
       </c>
       <c r="D11">
-        <v>6.58528100819562</v>
+        <v>8.985101118381511</v>
       </c>
       <c r="E11">
-        <v>8.479437925499345</v>
+        <v>4.87252588548253</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.760484342097333</v>
+        <v>2.104438263993047</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>38.6536640117954</v>
+        <v>32.44753068462475</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.05745134289961</v>
+        <v>18.57917382851999</v>
       </c>
       <c r="L11">
-        <v>10.59486836085039</v>
+        <v>7.096906924445591</v>
       </c>
       <c r="M11">
-        <v>17.58876976893945</v>
+        <v>13.44314529286281</v>
       </c>
       <c r="N11">
-        <v>26.07291705348422</v>
+        <v>19.01408614266705</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.76416317835761</v>
+        <v>21.20499548922123</v>
       </c>
       <c r="C12">
-        <v>9.254925806290993</v>
+        <v>14.01068275897221</v>
       </c>
       <c r="D12">
-        <v>6.618660193892153</v>
+        <v>9.110275295691684</v>
       </c>
       <c r="E12">
-        <v>8.477495981524905</v>
+        <v>4.873189410693413</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.759603386643789</v>
+        <v>2.101504155649838</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>38.68313130532199</v>
+        <v>32.64253470461912</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.09864398849041</v>
+        <v>18.84069934641892</v>
       </c>
       <c r="L12">
-        <v>10.59463211986537</v>
+        <v>7.128994414668812</v>
       </c>
       <c r="M12">
-        <v>17.59708938940537</v>
+        <v>13.55050812076078</v>
       </c>
       <c r="N12">
-        <v>26.07410003338939</v>
+        <v>19.02816065526577</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.75319368591305</v>
+        <v>21.15060755918981</v>
       </c>
       <c r="C13">
-        <v>9.241219330568148</v>
+        <v>13.96824494613134</v>
       </c>
       <c r="D13">
-        <v>6.611473712958668</v>
+        <v>9.083401354956861</v>
       </c>
       <c r="E13">
-        <v>8.477911438355182</v>
+        <v>4.873037064759935</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.759792391047524</v>
+        <v>2.102135845804585</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>38.67675033334015</v>
+        <v>32.60043456808444</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.08975026463068</v>
+        <v>18.78454268543869</v>
       </c>
       <c r="L13">
-        <v>10.59467290224548</v>
+        <v>7.12205941555058</v>
       </c>
       <c r="M13">
-        <v>17.59527573029951</v>
+        <v>13.52736824382743</v>
       </c>
       <c r="N13">
-        <v>26.07383376411893</v>
+        <v>19.02507250151829</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.7175078477249</v>
+        <v>20.97287141758432</v>
       </c>
       <c r="C14">
-        <v>9.196439025437387</v>
+        <v>13.82940610578596</v>
       </c>
       <c r="D14">
-        <v>6.58802813241487</v>
+        <v>8.995437513016801</v>
       </c>
       <c r="E14">
-        <v>8.479276909602964</v>
+        <v>4.87257624466576</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.760411538467749</v>
+        <v>2.104196766958305</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>38.65607266953776</v>
+        <v>32.46352774811069</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.06083026012331</v>
+        <v>18.60076545377077</v>
       </c>
       <c r="L14">
-        <v>10.59484437477459</v>
+        <v>7.099535819574357</v>
       </c>
       <c r="M14">
-        <v>17.58944436381755</v>
+        <v>13.45197026857729</v>
       </c>
       <c r="N14">
-        <v>26.07300919867781</v>
+        <v>19.01521854157973</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.69571765797806</v>
+        <v>20.86372134010324</v>
       </c>
       <c r="C15">
-        <v>9.168949055474085</v>
+        <v>13.74402232454072</v>
       </c>
       <c r="D15">
-        <v>6.573660803246642</v>
+        <v>8.941307933452542</v>
       </c>
       <c r="E15">
-        <v>8.480121430561253</v>
+        <v>4.872321326643769</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.760792909037732</v>
+        <v>2.105459861014062</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>38.64350866896968</v>
+        <v>32.37996663590599</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.04318130871219</v>
+        <v>18.49248661659426</v>
       </c>
       <c r="L15">
-        <v>10.59497897899855</v>
+        <v>7.085810564251413</v>
       </c>
       <c r="M15">
-        <v>17.58593661785208</v>
+        <v>13.405837715881</v>
       </c>
       <c r="N15">
-        <v>26.07253778412196</v>
+        <v>19.00934777891016</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.57192629599249</v>
+        <v>20.2338836970187</v>
       </c>
       <c r="C16">
-        <v>9.010531648068794</v>
+        <v>13.24937856747324</v>
       </c>
       <c r="D16">
-        <v>6.491257283829325</v>
+        <v>8.627225762135202</v>
       </c>
       <c r="E16">
-        <v>8.485085796786546</v>
+        <v>4.87126674229163</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.76301103185972</v>
+        <v>2.112712109038855</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>38.57307493237905</v>
+        <v>31.9056027492406</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.94306749395939</v>
+        <v>17.95312414179569</v>
       </c>
       <c r="L16">
-        <v>10.59620398222193</v>
+        <v>7.008233829369501</v>
       </c>
       <c r="M16">
-        <v>17.56682100896429</v>
+        <v>13.14225489695403</v>
       </c>
       <c r="N16">
-        <v>26.07035220421077</v>
+        <v>18.97816207263191</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.49698067808</v>
+        <v>19.84360707680662</v>
       </c>
       <c r="C17">
-        <v>8.912612538114187</v>
+        <v>12.9410404595192</v>
       </c>
       <c r="D17">
-        <v>6.440670798167646</v>
+        <v>8.431006226536077</v>
       </c>
       <c r="E17">
-        <v>8.488242753041675</v>
+        <v>4.870968970954646</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.764400985535883</v>
+        <v>2.117176642587849</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>38.53127062136356</v>
+        <v>31.61852343867593</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.88259044285002</v>
+        <v>17.61957623553703</v>
       </c>
       <c r="L17">
-        <v>10.59736066139358</v>
+        <v>6.961591461964802</v>
       </c>
       <c r="M17">
-        <v>17.5559768900369</v>
+        <v>12.9812646237567</v>
       </c>
       <c r="N17">
-        <v>26.06947182326418</v>
+        <v>18.96114691441569</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.45425314937079</v>
+        <v>19.61769893854887</v>
       </c>
       <c r="C18">
-        <v>8.856043641226</v>
+        <v>12.76184948302136</v>
       </c>
       <c r="D18">
-        <v>6.411573344993393</v>
+        <v>8.316817552276699</v>
       </c>
       <c r="E18">
-        <v>8.490099580340365</v>
+        <v>4.870921023032481</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.765211215390655</v>
+        <v>2.119751385059547</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>38.50774495375161</v>
+        <v>31.45481765003882</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.84816060390043</v>
+        <v>17.42674910216527</v>
       </c>
       <c r="L18">
-        <v>10.59817499889449</v>
+        <v>6.935107871696303</v>
       </c>
       <c r="M18">
-        <v>17.550065153957</v>
+        <v>12.88893361020353</v>
       </c>
       <c r="N18">
-        <v>26.06913466122708</v>
+        <v>18.95210877441632</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.43985269681709</v>
+        <v>19.54096488065808</v>
       </c>
       <c r="C19">
-        <v>8.836849844485741</v>
+        <v>12.70085780691565</v>
       </c>
       <c r="D19">
-        <v>6.401722282541712</v>
+        <v>8.277924571602826</v>
       </c>
       <c r="E19">
-        <v>8.490735322907396</v>
+        <v>4.870925519518047</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.765487397254501</v>
+        <v>2.120624432514967</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>38.49986898401369</v>
+        <v>31.39963017581822</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.8365651236401</v>
+        <v>17.36129349355327</v>
       </c>
       <c r="L19">
-        <v>10.59847633119096</v>
+        <v>6.926199627864153</v>
       </c>
       <c r="M19">
-        <v>17.54811955117821</v>
+        <v>12.85771836869606</v>
       </c>
       <c r="N19">
-        <v>26.06904956662546</v>
+        <v>18.94917450426706</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.50491981257701</v>
+        <v>19.88530088958863</v>
       </c>
       <c r="C20">
-        <v>8.923062405798188</v>
+        <v>12.97405332809431</v>
       </c>
       <c r="D20">
-        <v>6.446056222052627</v>
+        <v>8.452031013086627</v>
       </c>
       <c r="E20">
-        <v>8.487902444635965</v>
+        <v>4.870987797417739</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.764251909150173</v>
+        <v>2.116700700654199</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>38.5356671045685</v>
+        <v>31.64893650896973</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.88899180747297</v>
+        <v>17.65518441890236</v>
       </c>
       <c r="L20">
-        <v>10.5972221083211</v>
+        <v>6.966520932522845</v>
       </c>
       <c r="M20">
-        <v>17.55709760018484</v>
+        <v>12.99837490708531</v>
       </c>
       <c r="N20">
-        <v>26.06954802910141</v>
+        <v>18.96288009611794</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.72797545944124</v>
+        <v>21.02513542521721</v>
       </c>
       <c r="C21">
-        <v>9.209604856291975</v>
+        <v>13.87025720973332</v>
       </c>
       <c r="D21">
-        <v>6.594916027151452</v>
+        <v>9.021326389355103</v>
       </c>
       <c r="E21">
-        <v>8.47887414356955</v>
+        <v>4.872705867553613</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.76022923721056</v>
+        <v>2.103591281523448</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>38.66212503118602</v>
+        <v>32.50367823723175</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.06931119538671</v>
+        <v>18.65484784033104</v>
       </c>
       <c r="L21">
-        <v>10.59478784721741</v>
+        <v>7.106136697542675</v>
       </c>
       <c r="M21">
-        <v>17.59114381896818</v>
+        <v>13.47410588092041</v>
       </c>
       <c r="N21">
-        <v>26.07324437988992</v>
+        <v>19.01807830926199</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.8768527208113</v>
+        <v>21.75746928825286</v>
       </c>
       <c r="C22">
-        <v>9.394215758385643</v>
+        <v>14.44058974473571</v>
       </c>
       <c r="D22">
-        <v>6.691955569904925</v>
+        <v>9.382165935624295</v>
       </c>
       <c r="E22">
-        <v>8.473337689044671</v>
+        <v>4.875038912903513</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.757695379194393</v>
+        <v>2.095058946753216</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>38.74933092131698</v>
+        <v>33.07557010957336</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.1901131739701</v>
+        <v>19.40912305801551</v>
       </c>
       <c r="L22">
-        <v>10.59452090836009</v>
+        <v>7.200552809153995</v>
       </c>
       <c r="M22">
-        <v>17.61626862176022</v>
+        <v>13.78731357907323</v>
       </c>
       <c r="N22">
-        <v>26.07716654975896</v>
+        <v>19.06146173610371</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.7971243881466</v>
+        <v>21.36774790948995</v>
       </c>
       <c r="C23">
-        <v>9.29594960332231</v>
+        <v>14.13754695568304</v>
       </c>
       <c r="D23">
-        <v>6.640197664551637</v>
+        <v>9.19057557014529</v>
       </c>
       <c r="E23">
-        <v>8.476259349640916</v>
+        <v>4.873677069397848</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.759039069424234</v>
+        <v>2.099610904189467</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>38.70237366244106</v>
+        <v>32.76908872403308</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.12537894741627</v>
+        <v>19.00852667073629</v>
       </c>
       <c r="L23">
-        <v>10.59454240576121</v>
+        <v>7.149865330014199</v>
       </c>
       <c r="M23">
-        <v>17.60259740128515</v>
+        <v>13.61993982333816</v>
       </c>
       <c r="N23">
-        <v>26.07493540755424</v>
+        <v>19.03760544450384</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.50132940633901</v>
+        <v>19.86645589178896</v>
       </c>
       <c r="C24">
-        <v>8.918338868630796</v>
+        <v>12.95913421164158</v>
       </c>
       <c r="D24">
-        <v>6.443621514779798</v>
+        <v>8.442530010196002</v>
       </c>
       <c r="E24">
-        <v>8.488056167703405</v>
+        <v>4.870978903268111</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.764319271917031</v>
+        <v>2.116915848740741</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>38.53367787080305</v>
+        <v>31.63518259305789</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.88609669159167</v>
+        <v>17.63908927938053</v>
       </c>
       <c r="L24">
-        <v>10.5972842829372</v>
+        <v>6.964291286724468</v>
       </c>
       <c r="M24">
-        <v>17.5565899217079</v>
+        <v>12.99063864756459</v>
       </c>
       <c r="N24">
-        <v>26.06951305002993</v>
+        <v>18.96209421384527</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.19691808343973</v>
+        <v>18.19269739618715</v>
       </c>
       <c r="C25">
-        <v>8.501845337279162</v>
+        <v>11.61712961375643</v>
       </c>
       <c r="D25">
-        <v>6.231678539555376</v>
+        <v>7.584568965257282</v>
       </c>
       <c r="E25">
-        <v>8.502350409505748</v>
+        <v>4.872737234052479</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.770426820234693</v>
+        <v>2.135855923487523</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>38.37158580532039</v>
+        <v>30.46597081756332</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.64167462413421</v>
+        <v>16.21491020961792</v>
       </c>
       <c r="L25">
-        <v>10.60594125565759</v>
+        <v>6.777226311614534</v>
       </c>
       <c r="M25">
-        <v>17.5194186204304</v>
+        <v>12.32220715904462</v>
       </c>
       <c r="N25">
-        <v>26.07013302974105</v>
+        <v>18.90895976822661</v>
       </c>
       <c r="O25">
         <v>0</v>
